--- a/results/I2_N7_T30_C210_0_res.xlsx
+++ b/results/I2_N7_T30_C210_0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.92813671655816</v>
+        <v>26.53458309510687</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8040001392364502</v>
+        <v>1.285000085830688</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8373207445011535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.92813671655815</v>
+        <v>26.53458309510687</v>
       </c>
     </row>
     <row r="7">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -918,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.56956234228181</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26.51048995556366</v>
+        <v>21.94092761328177</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23.63137714923691</v>
+        <v>23.63137714923686</v>
       </c>
     </row>
     <row r="6">
@@ -958,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26.64562664123322</v>
+        <v>26.64562664123311</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>24.74301612009226</v>
       </c>
     </row>
     <row r="10">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>88.65000000000001</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>78.21999999999935</v>
+        <v>45.98000000001775</v>
       </c>
     </row>
     <row r="9">
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>103.9899999999998</v>
+        <v>59.63000000001739</v>
       </c>
     </row>
     <row r="10">
@@ -1166,7 +1166,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>93.34999999999999</v>
+        <v>62.45500000001812</v>
       </c>
     </row>
     <row r="11">
@@ -1177,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>104.1200000000008</v>
+        <v>60.29500000001826</v>
       </c>
     </row>
     <row r="12">
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>193.6100000000006</v>
+        <v>161.259999999953</v>
       </c>
     </row>
     <row r="13">
@@ -1199,7 +1199,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>171.3850000000002</v>
+        <v>139.1449999999495</v>
       </c>
     </row>
     <row r="14">
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>207.5550000000021</v>
+        <v>163.1949999999488</v>
       </c>
     </row>
     <row r="15">
@@ -1221,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>196.0250000000015</v>
+        <v>165.1299999999556</v>
       </c>
     </row>
     <row r="16">
@@ -1232,7 +1232,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>205.4100000000017</v>
+        <v>161.5849999999592</v>
       </c>
     </row>
     <row r="17">
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>121.2849999999999</v>
+        <v>121.2850000000363</v>
       </c>
     </row>
     <row r="18">
@@ -1254,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>130.7800000000007</v>
+        <v>130.7800000000335</v>
       </c>
     </row>
     <row r="19">
@@ -1265,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>114.2150000000001</v>
+        <v>114.2150000000329</v>
       </c>
     </row>
     <row r="20">
@@ -1276,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>123.4450000000015</v>
+        <v>123.4450000000325</v>
       </c>
     </row>
     <row r="21">
@@ -1287,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>119.9650000000001</v>
+        <v>119.9650000000311</v>
       </c>
     </row>
     <row r="22">
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>74.27000000000044</v>
+        <v>74.27000000000407</v>
       </c>
     </row>
     <row r="24">
@@ -1320,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>73.78499999999985</v>
+        <v>73.78500000000349</v>
       </c>
     </row>
     <row r="25">
@@ -1331,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>76.98999999999978</v>
+        <v>76.99000000000342</v>
       </c>
     </row>
     <row r="26">
@@ -1342,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>76.46500000000015</v>
+        <v>76.46500000000378</v>
       </c>
     </row>
     <row r="27">
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>64.40500000000061</v>
+        <v>64.4050000000134</v>
       </c>
     </row>
     <row r="28">
@@ -1364,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>56.73500000000054</v>
+        <v>56.73500000001333</v>
       </c>
     </row>
     <row r="29">
@@ -1375,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>69.55999999999945</v>
+        <v>69.56000000001224</v>
       </c>
     </row>
     <row r="30">
@@ -1386,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>69.62000000000076</v>
+        <v>69.62000000001355</v>
       </c>
     </row>
     <row r="31">
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>69.78999999999901</v>
+        <v>69.7900000000118</v>
       </c>
     </row>
     <row r="32">
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>184.3050000000003</v>
+        <v>184.3050000000642</v>
       </c>
     </row>
     <row r="33">
@@ -1419,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>196.6450000000004</v>
+        <v>196.6450000000625</v>
       </c>
     </row>
     <row r="34">
@@ -1430,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>179.7600000000002</v>
+        <v>179.7600000000659</v>
       </c>
     </row>
     <row r="35">
@@ -1441,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>178.7700000000004</v>
+        <v>178.7700000000589</v>
       </c>
     </row>
     <row r="36">
@@ -1452,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>183.869999999999</v>
+        <v>183.8700000000574</v>
       </c>
     </row>
     <row r="37">
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>32.35</v>
+        <v>193.6099999999004</v>
       </c>
     </row>
     <row r="38">
@@ -1474,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>32.23999999999978</v>
+        <v>171.3849999999</v>
       </c>
     </row>
     <row r="39">
@@ -1485,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>44.36000000000058</v>
+        <v>207.5549999999038</v>
       </c>
     </row>
     <row r="40">
@@ -1496,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>30.89500000000226</v>
+        <v>196.0249999999049</v>
       </c>
     </row>
     <row r="41">
@@ -1507,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>43.82500000000073</v>
+        <v>205.4099999999088</v>
       </c>
     </row>
     <row r="42">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>64.40500000000065</v>
+        <v>64.40500000004633</v>
       </c>
     </row>
     <row r="43">
@@ -1529,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>56.73500000000058</v>
+        <v>56.73500000003897</v>
       </c>
     </row>
     <row r="44">
@@ -1540,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>69.55999999999949</v>
+        <v>69.56000000004336</v>
       </c>
     </row>
     <row r="45">
@@ -1551,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>69.6200000000008</v>
+        <v>69.62000000004647</v>
       </c>
     </row>
     <row r="46">
@@ -1562,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>69.78999999999905</v>
+        <v>69.79000000004291</v>
       </c>
     </row>
     <row r="47">
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>193.6100000000006</v>
+        <v>193.6099999998775</v>
       </c>
     </row>
     <row r="48">
@@ -1584,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>171.3850000000002</v>
+        <v>171.3849999998772</v>
       </c>
     </row>
     <row r="49">
@@ -1595,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>207.5550000000021</v>
+        <v>207.5549999998809</v>
       </c>
     </row>
     <row r="50">
@@ -1606,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>196.0250000000015</v>
+        <v>196.024999999882</v>
       </c>
     </row>
     <row r="51">
@@ -1617,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>205.4100000000017</v>
+        <v>205.4099999998859</v>
       </c>
     </row>
     <row r="52">
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>184.3050000000003</v>
+        <v>184.3050000000881</v>
       </c>
     </row>
     <row r="53">
@@ -1639,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>196.6450000000006</v>
+        <v>196.6450000000841</v>
       </c>
     </row>
     <row r="54">
@@ -1650,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>179.7600000000002</v>
+        <v>179.7600000000881</v>
       </c>
     </row>
     <row r="55">
@@ -1661,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>178.7700000000004</v>
+        <v>178.7700000000829</v>
       </c>
     </row>
     <row r="56">
@@ -1672,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>183.869999999999</v>
+        <v>183.8700000000795</v>
       </c>
     </row>
   </sheetData>

--- a/results/I2_N7_T30_C210_0_res.xlsx
+++ b/results/I2_N7_T30_C210_0_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.285000085830688</v>
+        <v>1.305000066757202</v>
       </c>
     </row>
     <row r="5">
